--- a/PES/Office salaries/Mar Salary Sheet New (2024).xlsx
+++ b/PES/Office salaries/Mar Salary Sheet New (2024).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Office salaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A08107F-0BF3-446E-8B28-A1B76687B830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3D842F-D802-4FF6-871E-16DE1B150A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3586" uniqueCount="241">
   <si>
     <t>Name</t>
   </si>
@@ -1061,6 +1061,18 @@
   </si>
   <si>
     <t>Nadeem painter</t>
+  </si>
+  <si>
+    <t>M. Imran Feroz</t>
+  </si>
+  <si>
+    <t>Engr Ahsan</t>
+  </si>
+  <si>
+    <t>Waqas at NASTP</t>
+  </si>
+  <si>
+    <t>Engr Imran</t>
   </si>
 </sst>
 </file>
@@ -2031,7 +2043,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="450">
+  <cellXfs count="451">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2964,13 +2976,13 @@
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="25" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="55" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="28" fillId="17" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3187,10 +3199,10 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3244,6 +3256,7 @@
     <xf numFmtId="165" fontId="54" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3729,7 +3742,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T71" sqref="T71"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4277,7 +4290,7 @@
       </c>
       <c r="D16" s="124">
         <f>SUM(Q16:Q45)</f>
-        <v>1610762.0967741939</v>
+        <v>1635439.5161290325</v>
       </c>
       <c r="E16" s="66">
         <f>'Salary Record'!K9</f>
@@ -4935,7 +4948,7 @@
       <c r="R28" s="225"/>
       <c r="S28" s="225">
         <f>Q27+Q34+Q37+Q39+Q40+Q75+Q76+Q77+Q81+Q82+Q48+Q83</f>
-        <v>718485.88709677407</v>
+        <v>730824.59677419346</v>
       </c>
       <c r="T28" s="226"/>
     </row>
@@ -5307,7 +5320,7 @@
       <c r="R36" s="161"/>
       <c r="S36" s="162">
         <f>Q37+Q41+Q42+Q43+Q83</f>
-        <v>215233.87096774194</v>
+        <v>227572.58064516127</v>
       </c>
       <c r="T36" s="163"/>
     </row>
@@ -5322,7 +5335,7 @@
       <c r="D37" s="137"/>
       <c r="E37" s="179">
         <f>'Salary Record'!K159</f>
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="F37" s="179">
         <f>'Salary Record'!C165</f>
@@ -5342,11 +5355,11 @@
       </c>
       <c r="J37" s="312">
         <f>'Salary Record'!K164</f>
-        <v>14032.258064516129</v>
+        <v>16370.967741935483</v>
       </c>
       <c r="K37" s="175">
         <f>'Salary Record'!K165</f>
-        <v>74032.258064516122</v>
+        <v>86370.967741935485</v>
       </c>
       <c r="L37" s="176">
         <f>'Salary Record'!G163</f>
@@ -5370,7 +5383,7 @@
       </c>
       <c r="Q37" s="180">
         <f>'Salary Record'!K167</f>
-        <v>69032.258064516122</v>
+        <v>81370.967741935485</v>
       </c>
       <c r="R37" s="117" t="s">
         <v>110</v>
@@ -5873,7 +5886,7 @@
       <c r="D45" s="227"/>
       <c r="E45" s="229">
         <f>SUM(E37:E44)</f>
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="F45" s="227"/>
       <c r="G45" s="227"/>
@@ -5881,11 +5894,11 @@
       <c r="I45" s="227"/>
       <c r="J45" s="229">
         <f>SUM(J37:J44)</f>
-        <v>51846.774193548386</v>
+        <v>54185.483870967735</v>
       </c>
       <c r="K45" s="229">
         <f>SUM(K37:K44)</f>
-        <v>361137.09677419352</v>
+        <v>373475.80645161291</v>
       </c>
       <c r="L45" s="227"/>
       <c r="M45" s="227"/>
@@ -5894,7 +5907,7 @@
       <c r="P45" s="227"/>
       <c r="Q45" s="201">
         <f>SUM(Q37:Q44)</f>
-        <v>331137.09677419352</v>
+        <v>343475.80645161291</v>
       </c>
       <c r="R45" s="202"/>
       <c r="T45" s="204"/>
@@ -7422,7 +7435,7 @@
       </c>
       <c r="D70" s="142">
         <f>SUM(Q46:Q92)</f>
-        <v>5201066.5322580654</v>
+        <v>5213405.2419354841</v>
       </c>
       <c r="E70" s="200">
         <f>'Salary Record'!K611</f>
@@ -7513,15 +7526,15 @@
       <c r="N71" s="227"/>
       <c r="O71" s="227"/>
       <c r="P71" s="227"/>
-      <c r="Q71" s="357">
+      <c r="Q71" s="356">
         <f>SUM(Q57:Q70)</f>
         <v>730298.38709677407</v>
       </c>
-      <c r="R71" s="357">
+      <c r="R71" s="356">
         <f t="shared" ref="R71:S71" si="1">SUM(R57:R70)</f>
         <v>232500</v>
       </c>
-      <c r="S71" s="357">
+      <c r="S71" s="356">
         <f t="shared" si="1"/>
         <v>962798.38709677407</v>
       </c>
@@ -7654,7 +7667,7 @@
       </c>
       <c r="D75" s="144">
         <f>SUM(Q27:Q85)</f>
-        <v>3952030.2419354836</v>
+        <v>3976707.6612903229</v>
       </c>
       <c r="E75" s="200">
         <f>'Salary Record'!K723</f>
@@ -8383,7 +8396,7 @@
       <c r="D87" s="221"/>
       <c r="E87" s="232">
         <f>SUM(E4+E5+E71+E54+E45+E34+E27+E20+E11+E85)</f>
-        <v>2352500</v>
+        <v>2362500</v>
       </c>
       <c r="F87" s="221"/>
       <c r="G87" s="221"/>
@@ -8391,7 +8404,7 @@
       <c r="I87" s="221"/>
       <c r="J87" s="232">
         <f>SUM(J4+J5+J71+J54+J45+J34+J27+J20+J11+J85)</f>
-        <v>213542.33870967739</v>
+        <v>215881.04838709676</v>
       </c>
       <c r="K87" s="222"/>
       <c r="L87" s="206">
@@ -8416,7 +8429,7 @@
       </c>
       <c r="Q87" s="205">
         <f>SUM(Q4+Q5++Q71+Q54+Q45+Q34+Q27+Q20+Q11+Q85)+28000</f>
-        <v>2330058.4677419355</v>
+        <v>2342397.1774193547</v>
       </c>
       <c r="R87" s="79"/>
       <c r="S87" s="8"/>
@@ -8986,7 +8999,7 @@
       <c r="D107" s="83"/>
       <c r="E107" s="83">
         <f>Q45</f>
-        <v>331137.09677419352</v>
+        <v>343475.80645161291</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="69"/>
@@ -9128,7 +9141,7 @@
       </c>
       <c r="E113" s="81">
         <f>SUM(E99:E112)</f>
-        <v>2523348.7903225808</v>
+        <v>2535687.5000000005</v>
       </c>
       <c r="F113"/>
       <c r="G113"/>
@@ -9472,8 +9485,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC862"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScale="130" zoomScaleNormal="90" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48:K49"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A148" zoomScale="130" zoomScaleNormal="90" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9553,7 +9566,7 @@
       </c>
       <c r="X3" s="353">
         <f>K63+K78+K93+K108+K123+K138+K153+K168+K183+K198+K213+K228+K243+K258+K273+K288+K303+K318+K333+K348+K363+K378+K393+K408+K424+K439+K454+K469+K484+K499+K514+K529+K544+K559+K574+K589+K604+K635+K650+K666+K682+K698+K713+K728+K744+K760+K775+K790+K807+K823+K839</f>
-        <v>775750</v>
+        <v>780750</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="49" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9583,7 +9596,7 @@
       </c>
       <c r="X4" s="353">
         <f>K64+K79+K94+K109+K124+K139+K154+K169+K184+K199+K214+K229+K244+K259+K274+K289+K304+K319+K334+K349+K364+K379+K394+K409+K425+K440+K455+K470+K485+K500+K515+K530+K545+K560+K575+K590+K605+K636+K651+K667+K683+K699+K714+K729+K745+K761+K776+K791+K808+K824+K840</f>
-        <v>2703340.7258064519</v>
+        <v>2720679.4354838706</v>
       </c>
       <c r="Y4" s="27"/>
       <c r="Z4" s="27"/>
@@ -11455,7 +11468,7 @@
         <v>47</v>
       </c>
       <c r="U44" s="63" t="str">
-        <f t="shared" ref="U43:U45" si="9">Y43</f>
+        <f t="shared" ref="U44:U45" si="9">Y43</f>
         <v/>
       </c>
       <c r="V44" s="38"/>
@@ -16993,7 +17006,8 @@
         <v>1</v>
       </c>
       <c r="K159" s="278">
-        <v>60000</v>
+        <f>60000+10000</f>
+        <v>70000</v>
       </c>
       <c r="L159" s="279"/>
       <c r="N159" s="35"/>
@@ -17209,7 +17223,7 @@
       </c>
       <c r="K163" s="291">
         <f>K159/$K$2*I163</f>
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="L163" s="292"/>
       <c r="N163" s="35"/>
@@ -17261,7 +17275,7 @@
       </c>
       <c r="K164" s="294">
         <f>K159/$K$2/8*I164</f>
-        <v>14032.258064516129</v>
+        <v>16370.967741935483</v>
       </c>
       <c r="L164" s="295"/>
       <c r="N164" s="35"/>
@@ -17316,7 +17330,7 @@
       <c r="J165" s="397"/>
       <c r="K165" s="294">
         <f>K163+K164</f>
-        <v>74032.258064516122</v>
+        <v>86370.967741935485</v>
       </c>
       <c r="L165" s="295"/>
       <c r="N165" s="35"/>
@@ -17426,7 +17440,7 @@
       <c r="J167" s="390"/>
       <c r="K167" s="229">
         <f>K165-K166</f>
-        <v>69032.258064516122</v>
+        <v>81370.967741935485</v>
       </c>
       <c r="L167" s="297"/>
       <c r="N167" s="35"/>
@@ -17473,7 +17487,7 @@
       </c>
       <c r="K168" s="229">
         <f>K159/2</f>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L168" s="284"/>
       <c r="N168" s="35"/>
@@ -17510,7 +17524,9 @@
       <c r="D169" s="268"/>
       <c r="E169" s="268"/>
       <c r="F169" s="268"/>
-      <c r="G169" s="268"/>
+      <c r="G169" s="268">
+        <v>99030</v>
+      </c>
       <c r="H169" s="268"/>
       <c r="I169" s="389" t="s">
         <v>232</v>
@@ -17520,7 +17536,7 @@
       </c>
       <c r="K169" s="229">
         <f>K168+K167</f>
-        <v>99032.258064516122</v>
+        <v>116370.96774193548</v>
       </c>
       <c r="L169" s="284"/>
       <c r="N169" s="35"/>
@@ -17557,7 +17573,10 @@
       <c r="D170" s="299"/>
       <c r="E170" s="299"/>
       <c r="F170" s="299"/>
-      <c r="G170" s="299"/>
+      <c r="G170" s="357">
+        <f>K169-G169</f>
+        <v>17340.967741935485</v>
+      </c>
       <c r="H170" s="299"/>
       <c r="I170" s="299"/>
       <c r="J170" s="299"/>
@@ -32168,7 +32187,7 @@
       <c r="H471" s="299"/>
       <c r="I471" s="299"/>
       <c r="J471" s="299"/>
-      <c r="K471" s="358">
+      <c r="K471" s="357">
         <f>K470-G470</f>
         <v>2551.6129032258032</v>
       </c>
@@ -51247,14 +51266,14 @@
       </c>
       <c r="P8" s="111">
         <f>'Salary Sheets'!Q45</f>
-        <v>331137.09677419352</v>
+        <v>343475.80645161291</v>
       </c>
       <c r="Q8" s="111">
         <v>201483.87096774194</v>
       </c>
       <c r="R8" s="111">
         <f t="shared" si="0"/>
-        <v>-129653.22580645158</v>
+        <v>-141991.93548387097</v>
       </c>
       <c r="S8" s="69"/>
       <c r="T8" s="11"/>
@@ -51756,10 +51775,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69971A69-1AB5-4F7A-A4C2-73A1E09F711B}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -52303,7 +52322,7 @@
         <v>20000</v>
       </c>
       <c r="E33" s="314">
-        <f t="shared" ref="E33:E54" si="3">D33+C33</f>
+        <f t="shared" ref="E33:E58" si="3">D33+C33</f>
         <v>65000</v>
       </c>
     </row>
@@ -52543,7 +52562,7 @@
       <c r="A48" s="264" t="s">
         <v>211</v>
       </c>
-      <c r="B48" s="431">
+      <c r="B48" s="432">
         <v>45292</v>
       </c>
       <c r="C48" s="314">
@@ -52591,7 +52610,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="264" t="s">
+      <c r="A51" s="450" t="s">
         <v>222</v>
       </c>
       <c r="B51" s="433"/>
@@ -52607,61 +52626,130 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="313" t="s">
+      <c r="A52" s="264" t="s">
         <v>236</v>
       </c>
       <c r="B52" s="431">
         <v>45292</v>
       </c>
-      <c r="C52" s="314">
+      <c r="C52" s="265">
         <v>30000</v>
       </c>
-      <c r="D52" s="314">
+      <c r="D52" s="265">
         <v>5000</v>
       </c>
-      <c r="E52" s="314">
+      <c r="E52" s="265">
         <f t="shared" si="3"/>
         <v>35000</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="313" t="s">
+      <c r="A53" s="264" t="s">
         <v>199</v>
       </c>
-      <c r="B53" s="432"/>
-      <c r="C53" s="314">
+      <c r="B53" s="431"/>
+      <c r="C53" s="265">
         <v>45000</v>
       </c>
-      <c r="D53" s="314">
+      <c r="D53" s="265">
         <v>5000</v>
       </c>
-      <c r="E53" s="314">
+      <c r="E53" s="265">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="313" t="s">
+      <c r="A54" s="264" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="432"/>
-      <c r="C54" s="314">
+      <c r="B54" s="431"/>
+      <c r="C54" s="265">
         <v>35000</v>
       </c>
-      <c r="D54" s="314">
+      <c r="D54" s="265">
         <v>7000</v>
       </c>
-      <c r="E54" s="314">
+      <c r="E54" s="265">
         <f t="shared" si="3"/>
         <v>42000</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="356"/>
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="264" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="254">
+        <v>45352</v>
+      </c>
+      <c r="C55" s="265">
+        <v>60000</v>
+      </c>
+      <c r="D55" s="265">
+        <v>10000</v>
+      </c>
+      <c r="E55" s="265">
+        <f t="shared" si="3"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="264" t="s">
+        <v>237</v>
+      </c>
+      <c r="B56" s="431">
+        <v>45383</v>
+      </c>
+      <c r="C56" s="265">
+        <v>65000</v>
+      </c>
+      <c r="D56" s="265">
+        <v>10000</v>
+      </c>
+      <c r="E56" s="265">
+        <f t="shared" si="3"/>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="264" t="s">
+        <v>239</v>
+      </c>
+      <c r="B57" s="431"/>
+      <c r="C57" s="265">
+        <v>40000</v>
+      </c>
+      <c r="D57" s="265">
+        <v>10000</v>
+      </c>
+      <c r="E57" s="265">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="264" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58" s="431"/>
+      <c r="C58" s="265">
+        <v>60000</v>
+      </c>
+      <c r="D58" s="265">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="265">
+        <f t="shared" si="3"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="358"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:E2" xr:uid="{69971A69-1AB5-4F7A-A4C2-73A1E09F711B}"/>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B56:B58"/>
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B43:B47"/>
